--- a/data/trans_orig/P05A01-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P05A01-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>295042</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>271272</v>
+        <v>271631</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>318121</v>
+        <v>318298</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5050863149354256</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4643943651841934</v>
+        <v>0.4650094582126282</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5445960753488734</v>
+        <v>0.5448992719652745</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>398</v>
@@ -765,19 +765,19 @@
         <v>415616</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>384607</v>
+        <v>385625</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>447409</v>
+        <v>445060</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4515265333440083</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4178386129936109</v>
+        <v>0.4189438131880865</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4860663268396815</v>
+        <v>0.4835141923362456</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>688</v>
@@ -786,19 +786,19 @@
         <v>710658</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>670164</v>
+        <v>669857</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>748027</v>
+        <v>748812</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4723202725952819</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4454067506978558</v>
+        <v>0.4452028597347192</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4971562016451834</v>
+        <v>0.4976783850236902</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>203129</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>181221</v>
+        <v>181545</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>226489</v>
+        <v>226245</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3477391420047044</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3102354887250964</v>
+        <v>0.3107904039435273</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3877302871065231</v>
+        <v>0.3873119727618283</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>301</v>
@@ -836,19 +836,19 @@
         <v>317022</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>288591</v>
+        <v>289809</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>346323</v>
+        <v>347683</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3444130278025732</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.31352644729589</v>
+        <v>0.3148495135111692</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3762463211836207</v>
+        <v>0.3777232399269856</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>502</v>
@@ -857,19 +857,19 @@
         <v>520151</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>482806</v>
+        <v>480879</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>555925</v>
+        <v>557449</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.345704339107139</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3208840987447136</v>
+        <v>0.3196033921809182</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3694811709721737</v>
+        <v>0.3704940777645231</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>85971</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>69944</v>
+        <v>69854</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>104415</v>
+        <v>104186</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1471745430598701</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1197373745043691</v>
+        <v>0.1195849883847711</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1787490179605333</v>
+        <v>0.1783568565567787</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>184</v>
@@ -907,19 +907,19 @@
         <v>187831</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>164429</v>
+        <v>165663</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>214551</v>
+        <v>212233</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2040604388534185</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1786364482282859</v>
+        <v>0.1799772164891414</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2330892460419875</v>
+        <v>0.230570154622109</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>267</v>
@@ -928,19 +928,19 @@
         <v>273802</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>242961</v>
+        <v>245585</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>304912</v>
+        <v>306360</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1819753882975791</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1614779293338637</v>
+        <v>0.1632218842403443</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2026516489781159</v>
+        <v>0.2036139265941223</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>533901</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>501079</v>
+        <v>504275</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>566115</v>
+        <v>570014</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4953184440601709</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4648685247184471</v>
+        <v>0.4678333929555323</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5252046238631626</v>
+        <v>0.5288217097758265</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>514</v>
@@ -1053,19 +1053,19 @@
         <v>534399</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>500190</v>
+        <v>500310</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>565228</v>
+        <v>564852</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5057913342755503</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4734132058941492</v>
+        <v>0.4735266474534922</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.534969856005024</v>
+        <v>0.5346137940131015</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1029</v>
@@ -1074,19 +1074,19 @@
         <v>1068300</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1020236</v>
+        <v>1024931</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1113096</v>
+        <v>1114957</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5005025546166016</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4779844292880254</v>
+        <v>0.4801839736940379</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5214895165522954</v>
+        <v>0.5223616302638986</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>425346</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>395669</v>
+        <v>395336</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>457474</v>
+        <v>458963</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3946083715659629</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3670761053016988</v>
+        <v>0.3667670491017644</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4244149294282529</v>
+        <v>0.4257958726723824</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>384</v>
@@ -1124,19 +1124,19 @@
         <v>389584</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>359494</v>
+        <v>360297</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>423988</v>
+        <v>420579</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3687284506968851</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.340248989011522</v>
+        <v>0.3410092076251717</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4012902145929705</v>
+        <v>0.3980639201807465</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>811</v>
@@ -1145,19 +1145,19 @@
         <v>814930</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>769757</v>
+        <v>768875</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>859256</v>
+        <v>857963</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3817977368492963</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3606341470379803</v>
+        <v>0.3602207372071155</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4025644237251985</v>
+        <v>0.4019586139761027</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>118647</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>98159</v>
+        <v>97199</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>140563</v>
+        <v>139799</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1100731843738662</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09106574725359039</v>
+        <v>0.09017473006312522</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1304055294789411</v>
+        <v>0.1296967908964567</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>129</v>
@@ -1195,19 +1195,19 @@
         <v>132578</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>113529</v>
+        <v>113032</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>156039</v>
+        <v>154718</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1254802150275645</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1074516647966311</v>
+        <v>0.1069809977504414</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1476856219061638</v>
+        <v>0.1464351880223312</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>242</v>
@@ -1216,19 +1216,19 @@
         <v>251225</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>221162</v>
+        <v>221234</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>281925</v>
+        <v>282509</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1176997085341021</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1036153843286881</v>
+        <v>0.1036490799314508</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1320827143446425</v>
+        <v>0.1323566836273348</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>610559</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>577923</v>
+        <v>576782</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>644330</v>
+        <v>640932</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5447891011207444</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5156686278370817</v>
+        <v>0.5146500929242714</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5749217813864942</v>
+        <v>0.5718902004861635</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>514</v>
@@ -1341,19 +1341,19 @@
         <v>522502</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>488668</v>
+        <v>492080</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>554188</v>
+        <v>557289</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5262108380272615</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4921372635749767</v>
+        <v>0.4955728140542685</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5581226952836233</v>
+        <v>0.5612449507308407</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1112</v>
@@ -1362,19 +1362,19 @@
         <v>1133061</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1088591</v>
+        <v>1087744</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1175087</v>
+        <v>1179905</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5360615115617896</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5150220977404846</v>
+        <v>0.5146213128993861</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5559440559032808</v>
+        <v>0.5582235279120469</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>429194</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>396421</v>
+        <v>396477</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>461786</v>
+        <v>460120</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3829607654254643</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3537176379219941</v>
+        <v>0.3537680602034593</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4120416104445523</v>
+        <v>0.4105555642888506</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>379</v>
@@ -1412,19 +1412,19 @@
         <v>381781</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>352918</v>
+        <v>350245</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>414898</v>
+        <v>414051</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3844910255028044</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3554238469677827</v>
+        <v>0.3527317518208057</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4178437612503577</v>
+        <v>0.416990503794433</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>803</v>
@@ -1433,19 +1433,19 @@
         <v>810975</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>769961</v>
+        <v>767998</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>856117</v>
+        <v>858683</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3836796422013112</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.364275533691319</v>
+        <v>0.3633467067533293</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4050366158197434</v>
+        <v>0.4062505837253241</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>80973</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>63659</v>
+        <v>64665</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>99054</v>
+        <v>101136</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07225013345379126</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05680114215382065</v>
+        <v>0.05769895834996525</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08838390660030555</v>
+        <v>0.09024112164142715</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>88</v>
@@ -1483,19 +1483,19 @@
         <v>88669</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>71202</v>
+        <v>70412</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>107492</v>
+        <v>108447</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08929813646993408</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07170790965061426</v>
+        <v>0.07091231031494473</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.108255335093241</v>
+        <v>0.1092170944260076</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>168</v>
@@ -1504,19 +1504,19 @@
         <v>169641</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>146353</v>
+        <v>147044</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>197410</v>
+        <v>196666</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08025884623689913</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06924076249019347</v>
+        <v>0.06956779524108109</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09339654412722292</v>
+        <v>0.09304448973354396</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>269579</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>250581</v>
+        <v>247879</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>291447</v>
+        <v>287973</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6039560558686401</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5613933794606009</v>
+        <v>0.5553412850019738</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6529500031136738</v>
+        <v>0.6451664021924958</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>194</v>
@@ -1629,19 +1629,19 @@
         <v>194169</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>176377</v>
+        <v>176510</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>212731</v>
+        <v>211033</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.569147285333237</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5169961427317357</v>
+        <v>0.5173847653999059</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6235562174540851</v>
+        <v>0.6185778085998593</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>456</v>
@@ -1650,19 +1650,19 @@
         <v>463748</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>439074</v>
+        <v>433773</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>492902</v>
+        <v>491762</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5888765715142322</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5575447438423208</v>
+        <v>0.5508133969356863</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6258969615618071</v>
+        <v>0.6244487986361258</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>139192</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>120678</v>
+        <v>120356</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>158234</v>
+        <v>158767</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3118410049161295</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2703634746802677</v>
+        <v>0.2696412199311362</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3545016377462366</v>
+        <v>0.3556977564914462</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>106</v>
@@ -1700,19 +1700,19 @@
         <v>106148</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>89624</v>
+        <v>90115</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>122560</v>
+        <v>124145</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3111398504692154</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2627063311785355</v>
+        <v>0.264145571899169</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3592466047454848</v>
+        <v>0.363892677949983</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>244</v>
@@ -1721,19 +1721,19 @@
         <v>245340</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>221083</v>
+        <v>219059</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>272071</v>
+        <v>268654</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3115372582640749</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2807360081526148</v>
+        <v>0.2781650920699896</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3454811691331417</v>
+        <v>0.3411419674265799</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>37584</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26206</v>
+        <v>27181</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>51274</v>
+        <v>51337</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08420293921523042</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05871200600904778</v>
+        <v>0.06089638484220956</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1148726571502579</v>
+        <v>0.1150131653171235</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>39</v>
@@ -1771,19 +1771,19 @@
         <v>40841</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>30103</v>
+        <v>29259</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>53959</v>
+        <v>54124</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1197128641975476</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08823800927810921</v>
+        <v>0.08576331387844721</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1581632734897751</v>
+        <v>0.1586470359426554</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>74</v>
@@ -1792,19 +1792,19 @@
         <v>78425</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>61602</v>
+        <v>61765</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>96860</v>
+        <v>99000</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09958617022169282</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07822287458473814</v>
+        <v>0.0784306520577884</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1229944257246905</v>
+        <v>0.1257122967395999</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>1709081</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1653549</v>
+        <v>1649897</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1768702</v>
+        <v>1763125</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5292719531191253</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5120745376309472</v>
+        <v>0.5109436242923203</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5477354714280421</v>
+        <v>0.546008507874468</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1620</v>
@@ -1917,19 +1917,19 @@
         <v>1666687</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1606549</v>
+        <v>1609349</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1727941</v>
+        <v>1726124</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5033573927078764</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4851951895553168</v>
+        <v>0.4860408806875092</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5218566756115262</v>
+        <v>0.5213079205385498</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3285</v>
@@ -1938,19 +1938,19 @@
         <v>3375768</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3293433</v>
+        <v>3286343</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3455726</v>
+        <v>3454326</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5161521711911962</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5035632597291511</v>
+        <v>0.5024791489684496</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5283776357081877</v>
+        <v>0.5281635739888608</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>1196861</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1141433</v>
+        <v>1146445</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1250516</v>
+        <v>1255206</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3706465010323611</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3534813650626025</v>
+        <v>0.3550335331879411</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3872625807308381</v>
+        <v>0.3887148404140107</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1170</v>
@@ -1988,19 +1988,19 @@
         <v>1194535</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1136009</v>
+        <v>1139851</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1251115</v>
+        <v>1249721</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3607623277477109</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3430870184440792</v>
+        <v>0.3442472652897753</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3778501078630023</v>
+        <v>0.377429260143341</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2360</v>
@@ -2009,19 +2009,19 @@
         <v>2391395</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2316689</v>
+        <v>2315274</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2468320</v>
+        <v>2466681</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3656424339760593</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3542198057015707</v>
+        <v>0.3540034573061292</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3774040870794237</v>
+        <v>0.3771535338642931</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>323175</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>290171</v>
+        <v>286398</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>362060</v>
+        <v>358943</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1000815458485136</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08986087631319783</v>
+        <v>0.08869235439772313</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1121236320962524</v>
+        <v>0.1111582519941044</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>440</v>
@@ -2059,19 +2059,19 @@
         <v>449919</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>411258</v>
+        <v>409672</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>491624</v>
+        <v>489389</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1358802795444128</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1242042857549224</v>
+        <v>0.1237253034950776</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1484756132815784</v>
+        <v>0.1478006421711494</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>751</v>
@@ -2080,19 +2080,19 @@
         <v>773094</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>727339</v>
+        <v>719623</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>827570</v>
+        <v>827532</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1182053948327445</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.11120948219765</v>
+        <v>0.1100297642253178</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1265347746595888</v>
+        <v>0.1265289516248752</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>697063</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>668581</v>
+        <v>664566</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>730350</v>
+        <v>728113</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6687656267948051</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6414395765772749</v>
+        <v>0.6375878804064828</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7007016317518787</v>
+        <v>0.6985548107977423</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>691</v>
@@ -2445,19 +2445,19 @@
         <v>748646</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>713457</v>
+        <v>715015</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>780928</v>
+        <v>780668</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6691098239031696</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6376598510486877</v>
+        <v>0.6390521853307179</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6979627094458427</v>
+        <v>0.6977302982649519</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1345</v>
@@ -2466,19 +2466,19 @@
         <v>1445709</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1401670</v>
+        <v>1399864</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1495371</v>
+        <v>1494030</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6689438214971385</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6485665562646938</v>
+        <v>0.6477308648429505</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.69192285957833</v>
+        <v>0.691302490190659</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>258955</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>232659</v>
+        <v>232156</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>289307</v>
+        <v>291337</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2484430150430307</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2232141490849591</v>
+        <v>0.2227316289519599</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.277562739725944</v>
+        <v>0.2795100231383767</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>249</v>
@@ -2516,19 +2516,19 @@
         <v>270761</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>243219</v>
+        <v>242318</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>302411</v>
+        <v>300012</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2419957108127635</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2173795030442191</v>
+        <v>0.2165739804659029</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2702827234889994</v>
+        <v>0.2681393001801893</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>491</v>
@@ -2537,19 +2537,19 @@
         <v>529717</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>485508</v>
+        <v>483456</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>572211</v>
+        <v>570684</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2451051733521927</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2246492924297525</v>
+        <v>0.2236998980829339</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2647678250079546</v>
+        <v>0.2640612698893036</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>86295</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>68836</v>
+        <v>68467</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>104737</v>
+        <v>106424</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0827913581621641</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06604190495367837</v>
+        <v>0.0656875518854254</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1004846941742189</v>
+        <v>0.1021033151561057</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>90</v>
@@ -2587,19 +2587,19 @@
         <v>99461</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>79719</v>
+        <v>81251</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>120421</v>
+        <v>122930</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08889446528406686</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07124983140306247</v>
+        <v>0.07261900911285436</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1076279008337111</v>
+        <v>0.1098703337094878</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>170</v>
@@ -2608,19 +2608,19 @@
         <v>185756</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>159372</v>
+        <v>161133</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>213234</v>
+        <v>212914</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08595100515066882</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07374305906144338</v>
+        <v>0.07455769828852615</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09866527354132835</v>
+        <v>0.0985175957272706</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>636074</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>606128</v>
+        <v>607659</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>667326</v>
+        <v>667456</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6516825497732736</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6210020276885997</v>
+        <v>0.6225700893408752</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6837009039919145</v>
+        <v>0.6838344649587912</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>710</v>
@@ -2733,19 +2733,19 @@
         <v>767135</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>735982</v>
+        <v>735601</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>796851</v>
+        <v>796798</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7010526261647775</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6725827394706309</v>
+        <v>0.6722349020495062</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7282088563662465</v>
+        <v>0.7281597671336212</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1311</v>
@@ -2754,19 +2754,19 @@
         <v>1403209</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1363229</v>
+        <v>1357721</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1444231</v>
+        <v>1447132</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6777770853026224</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6584658230995777</v>
+        <v>0.65580545123946</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6975911583965807</v>
+        <v>0.698992377423458</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>278218</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>249928</v>
+        <v>249528</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>309728</v>
+        <v>306849</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2850448447771851</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2560608726603353</v>
+        <v>0.2556507606506365</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3173283085479648</v>
+        <v>0.3143785778248046</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>247</v>
@@ -2804,19 +2804,19 @@
         <v>260673</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>233502</v>
+        <v>231126</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>290535</v>
+        <v>290293</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2382177661498423</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2133872002035607</v>
+        <v>0.2112164785913882</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2655072992155407</v>
+        <v>0.2652868844359799</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>511</v>
@@ -2825,19 +2825,19 @@
         <v>538890</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>499658</v>
+        <v>497093</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>578047</v>
+        <v>581013</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2602944097710304</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.241344572580211</v>
+        <v>0.2401054203785931</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2792079056680545</v>
+        <v>0.2806404324601455</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>61757</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48135</v>
+        <v>48506</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>79100</v>
+        <v>79713</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0632726054495414</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04931588677428607</v>
+        <v>0.04969589041861053</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08104114320773287</v>
+        <v>0.08166921134270162</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>63</v>
@@ -2875,19 +2875,19 @@
         <v>66454</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50298</v>
+        <v>50261</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82391</v>
+        <v>86015</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06072960768538022</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04596558939154163</v>
+        <v>0.04593111002312282</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07529411115980811</v>
+        <v>0.07860513147899642</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>121</v>
@@ -2896,19 +2896,19 @@
         <v>128211</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>108462</v>
+        <v>106616</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>150921</v>
+        <v>152607</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06192850492634719</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05238902405023455</v>
+        <v>0.05149734746900011</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07289754921855819</v>
+        <v>0.07371231188633592</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>613379</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>582195</v>
+        <v>583116</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>641228</v>
+        <v>641451</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6946574418564725</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6593409855032433</v>
+        <v>0.6603846031397037</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7261968825813627</v>
+        <v>0.7264495041478051</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>598</v>
@@ -3021,19 +3021,19 @@
         <v>636106</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>608589</v>
+        <v>609496</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>661354</v>
+        <v>661891</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7271110555046929</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6956575663142397</v>
+        <v>0.69669456722067</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7559713073422798</v>
+        <v>0.756584747092288</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1169</v>
@@ -3042,19 +3042,19 @@
         <v>1249485</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1209468</v>
+        <v>1209386</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1292097</v>
+        <v>1287117</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7108089658075456</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.68804425964747</v>
+        <v>0.687997596424612</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7350499776407042</v>
+        <v>0.7322171760379542</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>230177</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>204445</v>
+        <v>205852</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>256703</v>
+        <v>257401</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2606774632542903</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2315363301039149</v>
+        <v>0.2331297131275824</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2907183624951116</v>
+        <v>0.2915094687698291</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>184</v>
@@ -3092,19 +3092,19 @@
         <v>196568</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>174249</v>
+        <v>172407</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>222735</v>
+        <v>221350</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2246897688995891</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1991781969920988</v>
+        <v>0.1970727715652379</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.254601006448482</v>
+        <v>0.2530175898166246</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>404</v>
@@ -3113,19 +3113,19 @@
         <v>426744</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>388721</v>
+        <v>391785</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>462735</v>
+        <v>461274</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2427670969815431</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2211363889581344</v>
+        <v>0.2228794139649415</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2632413535606005</v>
+        <v>0.2624101247494855</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>39439</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>26808</v>
+        <v>28557</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>52776</v>
+        <v>54955</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04466509488923723</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03036058972698505</v>
+        <v>0.0323413438083663</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05976926278208387</v>
+        <v>0.06223675689221422</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>38</v>
@@ -3163,19 +3163,19 @@
         <v>42167</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>30226</v>
+        <v>30210</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>57282</v>
+        <v>56371</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04819917559571799</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03454979333719644</v>
+        <v>0.034532445225647</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06547691166564679</v>
+        <v>0.06443553047405889</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>75</v>
@@ -3184,19 +3184,19 @@
         <v>81606</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>64753</v>
+        <v>64956</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>101467</v>
+        <v>101464</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0464239372109113</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03683658572216285</v>
+        <v>0.03695245932600066</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05772244521269465</v>
+        <v>0.05772098024872866</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>385779</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>361766</v>
+        <v>364403</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>404169</v>
+        <v>405161</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7692817358721921</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7213976294786812</v>
+        <v>0.7266571251544914</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.80595474572962</v>
+        <v>0.8079314785785675</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>306</v>
@@ -3309,19 +3309,19 @@
         <v>336328</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>317243</v>
+        <v>314335</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>354095</v>
+        <v>353143</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7473896600592265</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7049796968117545</v>
+        <v>0.6985169306782889</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7868731198762918</v>
+        <v>0.7847576733798532</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>660</v>
@@ -3330,19 +3330,19 @@
         <v>722106</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>693140</v>
+        <v>692182</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>750024</v>
+        <v>747327</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7589278942097866</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7284842999856304</v>
+        <v>0.7274775790652177</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7882692024945512</v>
+        <v>0.7854343245413956</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>88452</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>70985</v>
+        <v>71557</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>109673</v>
+        <v>108109</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1763816892046161</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.141552268381935</v>
+        <v>0.1426917367771127</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2186995088703639</v>
+        <v>0.2155803052132474</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>78</v>
@@ -3380,19 +3380,19 @@
         <v>86932</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>70476</v>
+        <v>71108</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>105458</v>
+        <v>104789</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1931801500263469</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1566120483974</v>
+        <v>0.1580166806446035</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2343488755361604</v>
+        <v>0.2328635554496053</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>160</v>
@@ -3401,19 +3401,19 @@
         <v>175383</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>150209</v>
+        <v>152591</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>200774</v>
+        <v>202966</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1843265092850086</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1578681939734821</v>
+        <v>0.1603714389569651</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2110120157937312</v>
+        <v>0.2133155703326758</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>27249</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18036</v>
+        <v>16941</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>39893</v>
+        <v>38591</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05433657492319188</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03596528627439206</v>
+        <v>0.03378301285172112</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07954997706283294</v>
+        <v>0.07695497056854109</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>26</v>
@@ -3451,19 +3451,19 @@
         <v>26744</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>18266</v>
+        <v>18359</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>38667</v>
+        <v>38711</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05943018991442655</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04058997811610935</v>
+        <v>0.04079849102788476</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08592551658407184</v>
+        <v>0.08602425205984807</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>50</v>
@@ -3472,19 +3472,19 @@
         <v>53992</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>40248</v>
+        <v>40953</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>70793</v>
+        <v>70640</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05674559650520487</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04230067144434557</v>
+        <v>0.04304088797732915</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.074403369899671</v>
+        <v>0.07424246450981561</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>2332296</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2272141</v>
+        <v>2271898</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2387268</v>
+        <v>2386975</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6853973930466702</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6677196730638638</v>
+        <v>0.6676482366528521</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7015522438701315</v>
+        <v>0.7014660624311078</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2305</v>
@@ -3597,19 +3597,19 @@
         <v>2488214</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2428444</v>
+        <v>2430242</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2544122</v>
+        <v>2542576</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7032880816631132</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6863941187697387</v>
+        <v>0.686902265031466</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7190901774780055</v>
+        <v>0.7186531808266283</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4485</v>
@@ -3618,19 +3618,19 @@
         <v>4820510</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4748556</v>
+        <v>4736066</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4898194</v>
+        <v>4901950</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6945169007291283</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6841501301167873</v>
+        <v>0.6823506350109525</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7057092772069594</v>
+        <v>0.7062504118763413</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>855802</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>805409</v>
+        <v>806751</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>912219</v>
+        <v>909473</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2514966028998221</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2366873908502047</v>
+        <v>0.2370817712970462</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2680759224065651</v>
+        <v>0.2672689412214581</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>758</v>
@@ -3668,19 +3668,19 @@
         <v>814933</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>761128</v>
+        <v>765205</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>870819</v>
+        <v>871780</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2303389973793372</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2151311711656611</v>
+        <v>0.2162834545661347</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2461349760829457</v>
+        <v>0.2464065413169874</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1566</v>
@@ -3689,19 +3689,19 @@
         <v>1670735</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1602539</v>
+        <v>1593144</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1742499</v>
+        <v>1744714</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2407118337820396</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2308864535032557</v>
+        <v>0.229532799861089</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2510512285680073</v>
+        <v>0.2513704104103849</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>214739</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>186229</v>
+        <v>187950</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>247702</v>
+        <v>244974</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06310600405350765</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05472754437561982</v>
+        <v>0.05523327574222252</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07279293086347836</v>
+        <v>0.07199102468833196</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>217</v>
@@ -3739,19 +3739,19 @@
         <v>234826</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>204986</v>
+        <v>206232</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>269819</v>
+        <v>267983</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06637292095754956</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05793872185612188</v>
+        <v>0.05829107148391179</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07626378821170748</v>
+        <v>0.07574481491600679</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>416</v>
@@ -3760,19 +3760,19 @@
         <v>449565</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>406725</v>
+        <v>409419</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>495201</v>
+        <v>493544</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06477126548883218</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05859904088725896</v>
+        <v>0.05898716183322244</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07134624728883826</v>
+        <v>0.07110758014813824</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>704048</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>669316</v>
+        <v>671983</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>735709</v>
+        <v>739769</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6241575332482503</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5933664074500034</v>
+        <v>0.595731587958961</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6522256926330016</v>
+        <v>0.6558253824318124</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>795</v>
@@ -4125,19 +4125,19 @@
         <v>840462</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>804783</v>
+        <v>806109</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>873826</v>
+        <v>874483</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6682221535382511</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6398553235248782</v>
+        <v>0.6409092419798744</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6947490076507182</v>
+        <v>0.6952711608560785</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1461</v>
@@ -4146,19 +4146,19 @@
         <v>1544510</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1498199</v>
+        <v>1494148</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1591573</v>
+        <v>1591712</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6473881752819185</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6279769426370382</v>
+        <v>0.62627903466969</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6671152178414412</v>
+        <v>0.6671730931226133</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>356845</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>327159</v>
+        <v>325647</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>389239</v>
+        <v>388983</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.316352802762591</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2900353129997331</v>
+        <v>0.2886951919543689</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3450708881407599</v>
+        <v>0.3448443245082304</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>297</v>
@@ -4196,19 +4196,19 @@
         <v>317398</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>286782</v>
+        <v>287638</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>350250</v>
+        <v>349429</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2523525901838728</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2280106495667667</v>
+        <v>0.2286914058844892</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2784715179549614</v>
+        <v>0.2778190475003707</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>634</v>
@@ -4217,19 +4217,19 @@
         <v>674244</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>627019</v>
+        <v>631354</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>718708</v>
+        <v>721566</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2826122186225241</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2628177203049145</v>
+        <v>0.2646350072160872</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3012498035836048</v>
+        <v>0.3024475042721498</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>67104</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>51140</v>
+        <v>51740</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>83931</v>
+        <v>85786</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05948966398915862</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04533714495146059</v>
+        <v>0.04586852313285716</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07440674390437051</v>
+        <v>0.0760513683816508</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>95</v>
@@ -4267,19 +4267,19 @@
         <v>99898</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>82610</v>
+        <v>81469</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>120246</v>
+        <v>121309</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07942525627787612</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06568066665361473</v>
+        <v>0.06477339073471132</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09560358707430706</v>
+        <v>0.09644880099854415</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>158</v>
@@ -4288,19 +4288,19 @@
         <v>167002</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>143502</v>
+        <v>144979</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>192052</v>
+        <v>195836</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0699996060955574</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06014971135133252</v>
+        <v>0.06076853298235441</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08049964071968654</v>
+        <v>0.0820853684326729</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>644190</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>617492</v>
+        <v>616392</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>671447</v>
+        <v>669872</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.708816670035765</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6794403076000917</v>
+        <v>0.6782299120823213</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7388077219368514</v>
+        <v>0.737074734044373</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>673</v>
@@ -4413,19 +4413,19 @@
         <v>712085</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>682769</v>
+        <v>680501</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>740338</v>
+        <v>740920</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7091285166630653</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6799348384570204</v>
+        <v>0.6776758634755256</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7372638819650706</v>
+        <v>0.7378443413116117</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1299</v>
@@ -4434,19 +4434,19 @@
         <v>1356275</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1314078</v>
+        <v>1314712</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1396411</v>
+        <v>1396051</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7089803646387443</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6869221957280637</v>
+        <v>0.6872533448337192</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7299612312433514</v>
+        <v>0.7297726946464679</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>212337</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>187604</v>
+        <v>188762</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>239856</v>
+        <v>239564</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2336391305271895</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2064251362719541</v>
+        <v>0.2076987795044939</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2639191309796662</v>
+        <v>0.2635978689771433</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>217</v>
@@ -4484,19 +4484,19 @@
         <v>229364</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>204576</v>
+        <v>201649</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>254798</v>
+        <v>257541</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2284114070010914</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2037267479890888</v>
+        <v>0.2008122844448876</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2537402177916003</v>
+        <v>0.2564718115771202</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>422</v>
@@ -4505,19 +4505,19 @@
         <v>441701</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>404202</v>
+        <v>407963</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>479800</v>
+        <v>482203</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2308949926973259</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2112926279918199</v>
+        <v>0.2132591062291643</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2508109931213129</v>
+        <v>0.2520671024076674</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>52298</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38795</v>
+        <v>39632</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>67345</v>
+        <v>68042</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05754419943704544</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04268682362765727</v>
+        <v>0.04360824711696454</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07410163601761877</v>
+        <v>0.0748682340926545</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -4555,19 +4555,19 @@
         <v>62720</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46931</v>
+        <v>49839</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79825</v>
+        <v>81034</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06246007633584331</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04673641095439947</v>
+        <v>0.04963199468928069</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07949335449850693</v>
+        <v>0.08069713185062766</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>109</v>
@@ -4576,19 +4576,19 @@
         <v>115018</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>95348</v>
+        <v>95635</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>137764</v>
+        <v>138156</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06012464266392976</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04984235517332556</v>
+        <v>0.04999240160898429</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0720149452867733</v>
+        <v>0.07221986046927321</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>652503</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>629646</v>
+        <v>627221</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>675969</v>
+        <v>675811</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7931524019988583</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7653693398375121</v>
+        <v>0.7624209086544248</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8216773593011439</v>
+        <v>0.8214850751474122</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>578</v>
@@ -4701,19 +4701,19 @@
         <v>608467</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>584172</v>
+        <v>584398</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>631736</v>
+        <v>629611</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7912338941735717</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7596413967012371</v>
+        <v>0.7599354616368048</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8214922768032287</v>
+        <v>0.8187297019086293</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1203</v>
@@ -4722,19 +4722,19 @@
         <v>1260969</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1226748</v>
+        <v>1226625</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1293105</v>
+        <v>1292950</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.792225487513327</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7707250118218831</v>
+        <v>0.7706480111175347</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8124151147804465</v>
+        <v>0.812318112294755</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>141175</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>120587</v>
+        <v>120728</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>164730</v>
+        <v>166471</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.171605292334126</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1465795384653597</v>
+        <v>0.1467509384918993</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2002383010344167</v>
+        <v>0.2023540489604096</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>120</v>
@@ -4772,19 +4772,19 @@
         <v>126693</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>105430</v>
+        <v>107748</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>146753</v>
+        <v>147931</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1647480523430094</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1370978111740605</v>
+        <v>0.1401126199227292</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1908342146911575</v>
+        <v>0.1923659740525804</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>255</v>
@@ -4793,19 +4793,19 @@
         <v>267867</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>238625</v>
+        <v>238948</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>299381</v>
+        <v>303451</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1682922617617431</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1499202293193324</v>
+        <v>0.1501230942398837</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1880909708935508</v>
+        <v>0.1906484292870966</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>28993</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18768</v>
+        <v>18931</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>41680</v>
+        <v>42627</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03524230566701578</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0228135129789493</v>
+        <v>0.02301154554089425</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0506641866044049</v>
+        <v>0.05181484655804255</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>28</v>
@@ -4843,19 +4843,19 @@
         <v>33850</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22883</v>
+        <v>23008</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>46380</v>
+        <v>47916</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04401805348341885</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02975579203362667</v>
+        <v>0.02991865703485682</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06031157237799807</v>
+        <v>0.06230805901770634</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>54</v>
@@ -4864,19 +4864,19 @@
         <v>62843</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>48467</v>
+        <v>46953</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>81650</v>
+        <v>79847</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03948225072492993</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03045025466340296</v>
+        <v>0.02949931038744284</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05129789671161161</v>
+        <v>0.0501651488315719</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>389855</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>370046</v>
+        <v>370953</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>408693</v>
+        <v>409193</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7713276106333488</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.732134696177511</v>
+        <v>0.7339297355656339</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8085988184614034</v>
+        <v>0.8095870771683965</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>330</v>
@@ -4989,19 +4989,19 @@
         <v>351975</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>331174</v>
+        <v>332272</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>372124</v>
+        <v>372031</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.718758446017272</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6762826677171834</v>
+        <v>0.6785236528289682</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7599049098944913</v>
+        <v>0.759714469869334</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>693</v>
@@ -5010,19 +5010,19 @@
         <v>741829</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>712848</v>
+        <v>711939</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>770494</v>
+        <v>770188</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.745458668321235</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.716335839349824</v>
+        <v>0.7154225116452211</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7742641822772001</v>
+        <v>0.7739562628606391</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>90982</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>73771</v>
+        <v>73252</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>108902</v>
+        <v>109693</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1800069656283863</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1459554355794536</v>
+        <v>0.1449284856647151</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2154621875044604</v>
+        <v>0.2170282965830946</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>95</v>
@@ -5060,19 +5060,19 @@
         <v>103934</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>83705</v>
+        <v>86836</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>122347</v>
+        <v>122901</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2122414800018156</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1709324105825165</v>
+        <v>0.177325334934649</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2498409105543262</v>
+        <v>0.2509729093482936</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>180</v>
@@ -5081,19 +5081,19 @@
         <v>194916</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>169606</v>
+        <v>171778</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>220123</v>
+        <v>222655</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1958693594646815</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.170436191735321</v>
+        <v>0.1726189563764037</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2212001668724766</v>
+        <v>0.223744701132836</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>24597</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16701</v>
+        <v>16066</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>36036</v>
+        <v>36195</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04866542373826498</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03304322857838352</v>
+        <v>0.03178678278603217</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07129778929661795</v>
+        <v>0.07161096992857495</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>30</v>
@@ -5131,19 +5131,19 @@
         <v>33789</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>23055</v>
+        <v>23769</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>47583</v>
+        <v>46744</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0690000739809124</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04707907496593059</v>
+        <v>0.0485372774923684</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09716888545236044</v>
+        <v>0.09545524466674826</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>52</v>
@@ -5152,19 +5152,19 @@
         <v>58386</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>43767</v>
+        <v>42228</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>74389</v>
+        <v>75893</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05867197221408352</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04398095234564546</v>
+        <v>0.04243462522123737</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07475272559196451</v>
+        <v>0.07626400879879389</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>2390596</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2335747</v>
+        <v>2342702</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2444182</v>
+        <v>2448157</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7104453426653061</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6941452565044502</v>
+        <v>0.696211922193845</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7263701611231995</v>
+        <v>0.7275514574509246</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2376</v>
@@ -5277,19 +5277,19 @@
         <v>2512988</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2458018</v>
+        <v>2455833</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2568600</v>
+        <v>2567303</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7137882720124761</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.698174538040424</v>
+        <v>0.6975541062005091</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7295842972147712</v>
+        <v>0.7292159313998365</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4656</v>
@@ -5298,19 +5298,19 @@
         <v>4903584</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4830747</v>
+        <v>4827795</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4976958</v>
+        <v>4984962</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7121546054782052</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7015763433804619</v>
+        <v>0.7011476886828978</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7228108802760701</v>
+        <v>0.7239731837967032</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>801338</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>755086</v>
+        <v>750391</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>852895</v>
+        <v>847692</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2381443993771524</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2243989023314234</v>
+        <v>0.2230036623085494</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2534662142335257</v>
+        <v>0.251919817855092</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>729</v>
@@ -5348,19 +5348,19 @@
         <v>777389</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>722585</v>
+        <v>727873</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>827207</v>
+        <v>825468</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2208093944688243</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2052428184783169</v>
+        <v>0.2067447819468891</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2349594888449875</v>
+        <v>0.2344656446781294</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1491</v>
@@ -5369,19 +5369,19 @@
         <v>1578728</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1508036</v>
+        <v>1503692</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1646986</v>
+        <v>1648403</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2292808919038904</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2190142524702765</v>
+        <v>0.21838341283101</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2391942246629201</v>
+        <v>0.2393998887460915</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>172992</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>147535</v>
+        <v>150484</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>201071</v>
+        <v>203654</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05141025795754151</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04384491497323095</v>
+        <v>0.04472147280614482</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05975494749151598</v>
+        <v>0.06052246945773841</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>212</v>
@@ -5419,19 +5419,19 @@
         <v>230258</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>202258</v>
+        <v>201681</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>264327</v>
+        <v>259766</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06540233351869963</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05744916146597084</v>
+        <v>0.05728531017311142</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07507931897828604</v>
+        <v>0.07378371563345329</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>373</v>
@@ -5440,19 +5440,19 @@
         <v>403249</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>366464</v>
+        <v>367014</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>446989</v>
+        <v>448013</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0585645026179044</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05322211208180714</v>
+        <v>0.05330191434119157</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06491684629248386</v>
+        <v>0.06506556261178065</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>347326</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>320955</v>
+        <v>322409</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>367871</v>
+        <v>370624</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6991153865670807</v>
+        <v>0.6991153865670808</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6460332937642321</v>
+        <v>0.6489603017843377</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7404683019196578</v>
+        <v>0.7460112823469909</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>618</v>
@@ -5805,19 +5805,19 @@
         <v>433384</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>412143</v>
+        <v>410096</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>455468</v>
+        <v>453366</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6949937942595947</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6609308064748751</v>
+        <v>0.6576474850547982</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.73040846210988</v>
+        <v>0.7270381814474712</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>934</v>
@@ -5826,19 +5826,19 @@
         <v>780711</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>750302</v>
+        <v>750845</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>812742</v>
+        <v>808685</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6968214113735651</v>
+        <v>0.6968214113735652</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6696795061007542</v>
+        <v>0.6701648288369353</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7254102192677255</v>
+        <v>0.7217898252438462</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>103957</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>85660</v>
+        <v>85204</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>128298</v>
+        <v>126017</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2092497604176362</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1724209519026882</v>
+        <v>0.1715021550440305</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.258245322885283</v>
+        <v>0.2536525550454127</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>168</v>
@@ -5876,19 +5876,19 @@
         <v>131920</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>113152</v>
+        <v>115470</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>153509</v>
+        <v>152931</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2115526747888738</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1814553040179928</v>
+        <v>0.1851722035455048</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2461744416005416</v>
+        <v>0.2452465155112742</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>261</v>
@@ -5897,19 +5897,19 @@
         <v>235877</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>208115</v>
+        <v>209807</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>264432</v>
+        <v>263869</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2105315049586512</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1857523149977083</v>
+        <v>0.1872622820770439</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2360181007133338</v>
+        <v>0.2355154060075803</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>45525</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>34326</v>
+        <v>33739</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>60959</v>
+        <v>61285</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.0916348530152831</v>
+        <v>0.09163485301528312</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06909224555543243</v>
+        <v>0.06791131482903569</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1227018374445159</v>
+        <v>0.1233580925168532</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>75</v>
@@ -5947,19 +5947,19 @@
         <v>58276</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>46628</v>
+        <v>46013</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>72368</v>
+        <v>71897</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0934535309515314</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07477445345951406</v>
+        <v>0.07378846240078317</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1160522912633091</v>
+        <v>0.115296775065691</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>119</v>
@@ -5968,19 +5968,19 @@
         <v>103801</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>85571</v>
+        <v>85659</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>123640</v>
+        <v>124016</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09264708366778368</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07637579604436785</v>
+        <v>0.07645456594720869</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1103544833822067</v>
+        <v>0.1106900626728134</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>745568</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>716402</v>
+        <v>716051</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>771579</v>
+        <v>774004</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7765230065510179</v>
+        <v>0.7765230065510178</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7461459942887145</v>
+        <v>0.7457804489650908</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8036135825986559</v>
+        <v>0.8061390834143001</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1273</v>
@@ -6093,19 +6093,19 @@
         <v>856848</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>832466</v>
+        <v>827949</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>882123</v>
+        <v>880331</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.76852349495205</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7466546672318084</v>
+        <v>0.7426031322645636</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7911923911952166</v>
+        <v>0.7895855694275978</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1985</v>
@@ -6114,19 +6114,19 @@
         <v>1602417</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1564110</v>
+        <v>1557738</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1641937</v>
+        <v>1641325</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7722248848784221</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7537642347085559</v>
+        <v>0.7506935057829119</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7912700012362425</v>
+        <v>0.7909754406325342</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>176585</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>151803</v>
+        <v>150018</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>203534</v>
+        <v>204882</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1839165853975611</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1581052625120916</v>
+        <v>0.1562467547654741</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2119844712239467</v>
+        <v>0.2133884262653394</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>259</v>
@@ -6164,19 +6164,19 @@
         <v>198981</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>176385</v>
+        <v>177735</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>221344</v>
+        <v>224773</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1784694793152787</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.158203152713366</v>
+        <v>0.1594141903487544</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.198527480467713</v>
+        <v>0.2016027609062402</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>424</v>
@@ -6185,19 +6185,19 @@
         <v>375566</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>341480</v>
+        <v>341479</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>411964</v>
+        <v>416981</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.1809898661328241</v>
+        <v>0.1809898661328242</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1645635290382396</v>
+        <v>0.164562998250421</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1985304752526041</v>
+        <v>0.2009482684556902</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>37983</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25874</v>
+        <v>26692</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55280</v>
+        <v>54512</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03956040805142108</v>
+        <v>0.03956040805142107</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02694859615290017</v>
+        <v>0.02780011005791712</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05757548129319449</v>
+        <v>0.05677575111718881</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -6235,19 +6235,19 @@
         <v>59099</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46799</v>
+        <v>46645</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74948</v>
+        <v>74767</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.05300702573267147</v>
+        <v>0.05300702573267146</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04197479240839874</v>
+        <v>0.04183635998668114</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06722239570833501</v>
+        <v>0.06705970136289646</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>107</v>
@@ -6256,19 +6256,19 @@
         <v>97082</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>78679</v>
+        <v>78886</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>121668</v>
+        <v>119423</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04678524898875371</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03791662153118775</v>
+        <v>0.03801594354344145</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05863325891097431</v>
+        <v>0.05755157508186044</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>870986</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>843726</v>
+        <v>843519</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>894281</v>
+        <v>895008</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.832301275687338</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8062517638842349</v>
+        <v>0.8060540262196264</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8545614923369936</v>
+        <v>0.8552562807601382</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1234</v>
@@ -6381,19 +6381,19 @@
         <v>836490</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>811285</v>
+        <v>811029</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>859174</v>
+        <v>858795</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.7984504343322066</v>
+        <v>0.7984504343322067</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7743910866652974</v>
+        <v>0.7741472868373347</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8201026064011081</v>
+        <v>0.81974124398566</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2087</v>
@@ -6402,19 +6402,19 @@
         <v>1707476</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1672492</v>
+        <v>1673640</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1741340</v>
+        <v>1739051</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8153664604300657</v>
+        <v>0.8153664604300659</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7986605401874511</v>
+        <v>0.7992087069136176</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.831537246756937</v>
+        <v>0.8304443034849404</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>146342</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>124556</v>
+        <v>125352</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>172730</v>
+        <v>173301</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1398418543344499</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1190241482460311</v>
+        <v>0.1197846785565999</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1650581380492773</v>
+        <v>0.1656037593492993</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>210</v>
@@ -6452,19 +6452,19 @@
         <v>154596</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>135859</v>
+        <v>134050</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>178218</v>
+        <v>178111</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1475652256615919</v>
+        <v>0.147565225661592</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1296804756711236</v>
+        <v>0.1279536244025899</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1701135919907185</v>
+        <v>0.1700108967835301</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>354</v>
@@ -6473,19 +6473,19 @@
         <v>300937</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>268672</v>
+        <v>271766</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>332759</v>
+        <v>333597</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1437056834551591</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1282981679267453</v>
+        <v>0.1297758210617397</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1589013526347491</v>
+        <v>0.1593015870938666</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>29152</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19805</v>
+        <v>20352</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>41352</v>
+        <v>42230</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02785686997821213</v>
+        <v>0.02785686997821212</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01892511932786069</v>
+        <v>0.0194484850311231</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03951525679765271</v>
+        <v>0.0403544282874406</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>72</v>
@@ -6523,19 +6523,19 @@
         <v>56556</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>44039</v>
+        <v>44489</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>72732</v>
+        <v>72275</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05398434000620131</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04203611090170302</v>
+        <v>0.04246595179343124</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06942484531806327</v>
+        <v>0.06898862710681646</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>104</v>
@@ -6544,19 +6544,19 @@
         <v>85708</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>68601</v>
+        <v>69739</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>104279</v>
+        <v>105914</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.04092785611477512</v>
+        <v>0.04092785611477513</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03275901438717808</v>
+        <v>0.03330207822173685</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04979596744513386</v>
+        <v>0.05057692901778337</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>710043</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>677411</v>
+        <v>677160</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>738205</v>
+        <v>739023</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7275564166540511</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6941191719046255</v>
+        <v>0.6938615949705582</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7564121348163038</v>
+        <v>0.7572503993633386</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1033</v>
@@ -6669,19 +6669,19 @@
         <v>700277</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>676343</v>
+        <v>676474</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>721018</v>
+        <v>721439</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.770394457079294</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7440644337718167</v>
+        <v>0.7442075941745663</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.793212125615355</v>
+        <v>0.7936748454130395</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1731</v>
@@ -6690,19 +6690,19 @@
         <v>1410320</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1367599</v>
+        <v>1375578</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1445122</v>
+        <v>1449019</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7482147192437989</v>
+        <v>0.7482147192437987</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7255499033220189</v>
+        <v>0.729782761943143</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7666778458165371</v>
+        <v>0.7687455738727522</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>199969</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>173481</v>
+        <v>174146</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>230435</v>
+        <v>230131</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2049015930789172</v>
+        <v>0.2049015930789171</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1777594359466537</v>
+        <v>0.1784412770736972</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2361182896559367</v>
+        <v>0.2358074882078625</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>213</v>
@@ -6740,19 +6740,19 @@
         <v>152013</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>133196</v>
+        <v>132786</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>174814</v>
+        <v>172817</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1672341782169032</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.146532877549713</v>
+        <v>0.146081229534552</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1923180836979894</v>
+        <v>0.1901209425344023</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>397</v>
@@ -6761,19 +6761,19 @@
         <v>351983</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>319202</v>
+        <v>316313</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>389967</v>
+        <v>385945</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1867367833381217</v>
+        <v>0.1867367833381216</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1693455877793872</v>
+        <v>0.1678127262164846</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2068883815322125</v>
+        <v>0.2047547672170627</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>65916</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>50558</v>
+        <v>52055</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>84467</v>
+        <v>86617</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06754199026703182</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05180490608997376</v>
+        <v>0.05333845001836803</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0865503994165585</v>
+        <v>0.08875292216073155</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>76</v>
@@ -6811,19 +6811,19 @@
         <v>56695</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>44912</v>
+        <v>44143</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>73992</v>
+        <v>71863</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06237136470380285</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04940900506864108</v>
+        <v>0.04856337956985793</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08140047803881409</v>
+        <v>0.07905860232423528</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>141</v>
@@ -6832,19 +6832,19 @@
         <v>122611</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>102813</v>
+        <v>101774</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>145770</v>
+        <v>143815</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.06504849741807964</v>
+        <v>0.06504849741807962</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05454525903450873</v>
+        <v>0.0539937949576479</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0773353143106498</v>
+        <v>0.07629797053985264</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>2673924</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2620960</v>
+        <v>2618878</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2729448</v>
+        <v>2724885</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7685117844829947</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7532894486698203</v>
+        <v>0.752691209301219</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.784469870784302</v>
+        <v>0.7831584377945673</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4158</v>
@@ -6957,19 +6957,19 @@
         <v>2827000</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2775039</v>
+        <v>2783795</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2870906</v>
+        <v>2876958</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7650599434187956</v>
+        <v>0.7650599434187957</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7509981181604113</v>
+        <v>0.7533675288192582</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7769421789388663</v>
+        <v>0.7785798969945567</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6737</v>
@@ -6978,19 +6978,19 @@
         <v>5500924</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5422033</v>
+        <v>5427506</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5570184</v>
+        <v>5569419</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7667339548218105</v>
+        <v>0.7667339548218103</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7557379433717804</v>
+        <v>0.7565008313787399</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7763877185848704</v>
+        <v>0.7762809924745394</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>626853</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>575443</v>
+        <v>580055</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>677073</v>
+        <v>677145</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1801636819451183</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1653879894902406</v>
+        <v>0.1667134488158203</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1945973005948464</v>
+        <v>0.1946181800815286</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>850</v>
@@ -7028,19 +7028,19 @@
         <v>637510</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>596796</v>
+        <v>595302</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>685827</v>
+        <v>677467</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1725267276344236</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1615085682570663</v>
+        <v>0.1611042956510243</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1856028159831485</v>
+        <v>0.1833402482792721</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1436</v>
@@ -7049,19 +7049,19 @@
         <v>1264363</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1204339</v>
+        <v>1203285</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1332178</v>
+        <v>1330762</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1762303595116267</v>
+        <v>0.1762303595116266</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1678640563983985</v>
+        <v>0.1677172620901289</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1856825925804911</v>
+        <v>0.1854852910728802</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>178576</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>150540</v>
+        <v>153549</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>206362</v>
+        <v>210375</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.05132453357188701</v>
+        <v>0.05132453357188702</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04326677916403074</v>
+        <v>0.04413139885294604</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05931057537581266</v>
+        <v>0.06046386542430053</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>297</v>
@@ -7099,19 +7099,19 @@
         <v>230626</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>204763</v>
+        <v>203016</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>259512</v>
+        <v>261930</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0624133289467808</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05541420281739354</v>
+        <v>0.05494137610573218</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07023081539795423</v>
+        <v>0.07088514124666072</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>471</v>
@@ -7120,19 +7120,19 @@
         <v>409202</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>371350</v>
+        <v>372509</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>449639</v>
+        <v>448381</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.05703568566656291</v>
+        <v>0.0570356856665629</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05175979711565116</v>
+        <v>0.05192138444647544</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06267186693301213</v>
+        <v>0.06249655963519138</v>
       </c>
     </row>
     <row r="23">
